--- a/Output/Tables/Table_4.xlsx
+++ b/Output/Tables/Table_4.xlsx
@@ -123,10 +123,10 @@
         <v>#N/A</v>
       </c>
       <c r="C2" t="n">
-        <v>131739.18494582784</v>
+        <v>163505.01289087508</v>
       </c>
       <c r="D2" t="n">
-        <v>17.6</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="3">
@@ -137,10 +137,10 @@
         <v>#N/A</v>
       </c>
       <c r="C3" t="n">
-        <v>13788.245481967964</v>
+        <v>16664.416194232548</v>
       </c>
       <c r="D3" t="n">
-        <v>9.8</v>
+        <v>9.7</v>
       </c>
     </row>
     <row r="4">
@@ -151,10 +151,10 @@
         <v>#N/A</v>
       </c>
       <c r="C4" t="n">
-        <v>9206.253918067034</v>
+        <v>11340.8056353941</v>
       </c>
       <c r="D4" t="n">
-        <v>13.1</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="5">
@@ -165,10 +165,10 @@
         <v>#N/A</v>
       </c>
       <c r="C5" t="n">
-        <v>108744.68554579285</v>
+        <v>135499.7910612484</v>
       </c>
       <c r="D5" t="n">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="6">
@@ -179,10 +179,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>24698.685914210517</v>
+        <v>29714.801234687355</v>
       </c>
       <c r="D6" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="7">
@@ -193,10 +193,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>32088.356022378066</v>
+        <v>39800.924230264754</v>
       </c>
       <c r="D7" t="n">
-        <v>17.0</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="8">
@@ -207,10 +207,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>37253.164813296265</v>
+        <v>46702.59660070997</v>
       </c>
       <c r="D8" t="n">
-        <v>16.8</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="9">
@@ -221,10 +221,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>5786.323580669973</v>
+        <v>6787.807567225531</v>
       </c>
       <c r="D9" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="10">
@@ -235,10 +235,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>31885.288370645212</v>
+        <v>40466.90267813935</v>
       </c>
       <c r="D10" t="n">
-        <v>18.0</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="11">
@@ -249,10 +249,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>27.366244627812236</v>
+        <v>31.98057984809888</v>
       </c>
       <c r="D11" t="n">
-        <v>18.9</v>
+        <v>19.0</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Tables/Table_4.xlsx
+++ b/Output/Tables/Table_4.xlsx
@@ -123,10 +123,10 @@
         <v>#N/A</v>
       </c>
       <c r="C2" t="n">
-        <v>163505.01289087508</v>
+        <v>138914.46882130537</v>
       </c>
       <c r="D2" t="n">
-        <v>17.9</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="3">
@@ -137,10 +137,10 @@
         <v>#N/A</v>
       </c>
       <c r="C3" t="n">
-        <v>16664.416194232548</v>
+        <v>14516.597729148474</v>
       </c>
       <c r="D3" t="n">
-        <v>9.7</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="4">
@@ -151,10 +151,10 @@
         <v>#N/A</v>
       </c>
       <c r="C4" t="n">
-        <v>11340.8056353941</v>
+        <v>9845.141984185488</v>
       </c>
       <c r="D4" t="n">
-        <v>13.0</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="5">
@@ -165,10 +165,10 @@
         <v>#N/A</v>
       </c>
       <c r="C5" t="n">
-        <v>135499.7910612484</v>
+        <v>114552.72910797142</v>
       </c>
       <c r="D5" t="n">
-        <v>20.6</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="6">
@@ -179,10 +179,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>29714.801234687355</v>
+        <v>26125.173186287033</v>
       </c>
       <c r="D6" t="n">
-        <v>18.7</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="7">
@@ -193,10 +193,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>39800.924230264754</v>
+        <v>33849.03757102444</v>
       </c>
       <c r="D7" t="n">
-        <v>17.2</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="8">
@@ -207,10 +207,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>46702.59660070997</v>
+        <v>39263.165425997526</v>
       </c>
       <c r="D8" t="n">
-        <v>17.1</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="9">
@@ -221,10 +221,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>6787.807567225531</v>
+        <v>6052.406386566344</v>
       </c>
       <c r="D9" t="n">
-        <v>20.9</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="10">
@@ -235,10 +235,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>40466.90267813935</v>
+        <v>33595.9699673872</v>
       </c>
       <c r="D10" t="n">
-        <v>18.3</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="11">
@@ -249,10 +249,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>31.98057984809888</v>
+        <v>28.716284042823688</v>
       </c>
       <c r="D11" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Tables/Table_4.xlsx
+++ b/Output/Tables/Table_4.xlsx
@@ -123,10 +123,10 @@
         <v>#N/A</v>
       </c>
       <c r="C2" t="n">
-        <v>138914.46882130537</v>
+        <v>134166.03783913402</v>
       </c>
       <c r="D2" t="n">
-        <v>20.5</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="3">
@@ -137,10 +137,10 @@
         <v>#N/A</v>
       </c>
       <c r="C3" t="n">
-        <v>14516.597729148474</v>
+        <v>14111.567480367174</v>
       </c>
       <c r="D3" t="n">
-        <v>11.4</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="4">
@@ -151,10 +151,10 @@
         <v>#N/A</v>
       </c>
       <c r="C4" t="n">
-        <v>9845.141984185488</v>
+        <v>9373.153831339589</v>
       </c>
       <c r="D4" t="n">
-        <v>15.3</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="5">
@@ -165,10 +165,10 @@
         <v>#N/A</v>
       </c>
       <c r="C5" t="n">
-        <v>114552.72910797142</v>
+        <v>110681.31652742726</v>
       </c>
       <c r="D5" t="n">
-        <v>23.5</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="6">
@@ -179,10 +179,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>26125.173186287033</v>
+        <v>25202.457153622418</v>
       </c>
       <c r="D6" t="n">
-        <v>21.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="7">
@@ -193,10 +193,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>33849.03757102444</v>
+        <v>32736.887182473958</v>
       </c>
       <c r="D7" t="n">
-        <v>19.8</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="8">
@@ -207,10 +207,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>39263.165425997526</v>
+        <v>37919.8910772963</v>
       </c>
       <c r="D8" t="n">
-        <v>19.5</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="9">
@@ -221,10 +221,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>6052.406386566344</v>
+        <v>5901.986659874565</v>
       </c>
       <c r="D9" t="n">
-        <v>24.0</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="10">
@@ -235,10 +235,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>33595.9699673872</v>
+        <v>32377.010367692354</v>
       </c>
       <c r="D10" t="n">
-        <v>20.9</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="11">
@@ -249,10 +249,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>28.716284042823688</v>
+        <v>27.80539817442796</v>
       </c>
       <c r="D11" t="n">
-        <v>22.0</v>
+        <v>18.8</v>
       </c>
     </row>
   </sheetData>
